--- a/OrdBookBids.xlsx
+++ b/OrdBookBids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL3"/>
+  <dimension ref="A1:EM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,700 +441,705 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Avg Price last 5 mins</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Total Bid Quantity</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Total Asks Quantity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>b0-0.001</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>b0.001-0.002</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>b0.002-0.003</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>b0.003-0.004</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>b0.004-0.005</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>b0.005-0.006</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>b0.006-0.007</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>b0.007-0.008</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>b0.008-0.009</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>b0.009-0.01</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>b0.01-0.015</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>b0.015-0.02</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>b0.02-0.025</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>b0.025-0.03</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>b0.03-0.035</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>b0.035-0.04</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>b0.04-0.045</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>b0.045-0.05</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>b0.05-0.055</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>b0.055-0.06</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>b0.06-0.065</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>b0.065-0.07</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>b0.07-0.075</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>b0.075-0.08</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>b0.08-0.085</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>b0.085-0.09</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>b0.09-0.095</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>b0.095-0.1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>b0.1-0.12</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>b0.12-0.15</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>b0.15-0.2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>b0.2-0.25</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>b0.25-0.3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>b0.3-0.35</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>b0.35-0.4</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>b0.4-0.45</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>b0.45-0.5</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>b0.5-0.6</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>b0.6-0.7</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>b0.7-0.8</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>b0.8-0.9</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>b0.9-1</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>b1-1+</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>b0-0.002</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>b0.002-0.004</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>b0.004-0.006</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>b0.006-0.008</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>b0.008-0.01</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>b0.01-0.02</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>b0.02-0.03</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>b0.03-0.04</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>b0.04-0.05</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>b0.05-0.06</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>b0.06-0.07</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>b0.07-0.08</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>b0.08-0.09</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>b0.1-0.2</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>b0.2-0.3</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>b0.3-0.4</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>b0.4-0.5</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>b0.5-0.7</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>b0.7-1</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>b0-0.005</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>b0.005-0.01</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>b0.01-0.05</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>b0.05-0.1</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>b0.1-0.3</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>b0.3-0.5</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>b0.5-1</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>a0-0.001</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>a0.001-0.002</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>a0.002-0.003</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>a0.003-0.004</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>a0.004-0.005</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>a0.005-0.006</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>a0.006-0.007</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>a0.007-0.008</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>a0.008-0.009</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>a0.009-0.01</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>a0.01-0.015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>a0.015-0.02</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>a0.02-0.025</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>a0.025-0.03</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>a0.03-0.035</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>a0.035-0.04</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>a0.04-0.045</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>a0.045-0.05</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>a0.05-0.055</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>a0.055-0.06</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>a0.06-0.065</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>a0.065-0.07</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>a0.07-0.075</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>a0.075-0.08</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>a0.08-0.085</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>a0.085-0.09</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>a0.09-0.095</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>a0.095-0.1</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>a0.1-0.12</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>a0.12-0.15</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>a0.15-0.2</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>a0.2-0.25</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>a0.25-0.3</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>a0.3-0.35</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>a0.35-0.4</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>a0.4-0.45</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>a0.45-0.5</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>a0.5-0.6</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>a0.6-0.7</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>a0.7-0.8</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>a0.8-0.9</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>a0.9-1</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>a1-1+</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>a0-0.002</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>a0.002-0.004</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>a0.004-0.006</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>a0.006-0.008</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>a0.008-0.01</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>a0.01-0.02</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>a0.02-0.03</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>a0.03-0.04</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>a0.04-0.05</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>a0.05-0.06</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>a0.06-0.07</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>a0.07-0.08</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>a0.08-0.09</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>a0.1-0.2</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>a0.2-0.3</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>a0.3-0.4</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>a0.4-0.5</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>a0.5-0.7</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>a0.7-1</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>a0-0.005</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>a0.005-0.01</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>a0.01-0.05</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>a0.05-0.1</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>a0.1-0.3</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>a0.3-0.5</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>a0.5-1</t>
         </is>
@@ -1146,428 +1151,433 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43814.01000000</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>239.6719400000026</v>
+          <t>43730.16000000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>43716.27252902</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>342.999660000001</v>
+        <v>411.6148500000034</v>
       </c>
       <c r="E2" t="n">
-        <v>10.31202</v>
+        <v>265.8477400000031</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28258</v>
+        <v>7.155920000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01012</v>
+        <v>0.17215</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01229</v>
+        <v>0.009110000000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2832</v>
+        <v>0.55258</v>
       </c>
       <c r="J2" t="n">
-        <v>0.28822</v>
+        <v>0.28525</v>
       </c>
       <c r="K2" t="n">
-        <v>0.18865</v>
+        <v>0.3401500000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0.43766</v>
+        <v>0.02907</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00295</v>
+        <v>0.5984900000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01135</v>
+        <v>0.0242</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7186499999999999</v>
+        <v>0.12221</v>
       </c>
       <c r="P2" t="n">
-        <v>1.889840000000001</v>
+        <v>2.65708</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.04509</v>
+        <v>1.32004</v>
       </c>
       <c r="R2" t="n">
-        <v>2.72546</v>
+        <v>4.699689999999998</v>
       </c>
       <c r="S2" t="n">
-        <v>3.71916</v>
+        <v>3.519150000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>1.00935</v>
+        <v>0.30882</v>
       </c>
       <c r="U2" t="n">
-        <v>3.640899999999999</v>
+        <v>3.43496</v>
       </c>
       <c r="V2" t="n">
-        <v>1.00117</v>
+        <v>2.18229</v>
       </c>
       <c r="W2" t="n">
-        <v>3.24451</v>
+        <v>0.92477</v>
       </c>
       <c r="X2" t="n">
-        <v>6.400889999999999</v>
+        <v>2.45189</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.27043</v>
+        <v>1.71729</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.11656</v>
+        <v>6.14186</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.06207</v>
+        <v>13.43713</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.11658</v>
+        <v>1.749</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.41478</v>
+        <v>1.32907</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.15272</v>
+        <v>1.83338</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7243799999999999</v>
+        <v>2.98992</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.88913</v>
+        <v>2.36102</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.31252</v>
+        <v>9.074540000000002</v>
       </c>
       <c r="AH2" t="n">
-        <v>20.90023</v>
+        <v>5.12378</v>
       </c>
       <c r="AI2" t="n">
-        <v>20.21328</v>
+        <v>6.229209999999998</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.145420000000003</v>
+        <v>43.39268000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.961139999999999</v>
+        <v>6.241490000000005</v>
       </c>
       <c r="AL2" t="n">
-        <v>4.399090000000002</v>
+        <v>11.05615000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>14.93615000000001</v>
+        <v>0.9108299999999999</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7393600000000001</v>
+        <v>4.919649999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.54026</v>
+        <v>2.44887</v>
       </c>
       <c r="AP2" t="n">
-        <v>10.63363000000002</v>
+        <v>14.32756000000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.95340000000001</v>
+        <v>31.64835999999998</v>
       </c>
       <c r="AR2" t="n">
-        <v>31.98120999999998</v>
+        <v>37.23855999999996</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.921860000000002</v>
+        <v>85.05930000000004</v>
       </c>
       <c r="AT2" t="n">
-        <v>7.949610000000011</v>
+        <v>27.07235999999997</v>
       </c>
       <c r="AU2" t="n">
-        <v>41.4230899999999</v>
+        <v>33.75399000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>10.5946</v>
+        <v>31.09171000000001</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02241</v>
+        <v>7.32807</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2624</v>
+        <v>0.5616899999999999</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.6263099999999999</v>
+        <v>0.30472</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0143</v>
+        <v>0.62756</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.60849</v>
+        <v>0.14641</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.77055</v>
+        <v>3.977120000000001</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.728509999999997</v>
+        <v>8.218839999999991</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.642069999999999</v>
+        <v>3.74378</v>
       </c>
       <c r="BE2" t="n">
-        <v>9.645399999999997</v>
+        <v>3.107059999999999</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.38699</v>
+        <v>4.169179999999999</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.17865</v>
+        <v>19.57899</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.29188</v>
+        <v>3.07807</v>
       </c>
       <c r="BI2" t="n">
-        <v>52.31516000000005</v>
+        <v>7.18432</v>
       </c>
       <c r="BJ2" t="n">
-        <v>10.10656000000002</v>
+        <v>63.82021</v>
       </c>
       <c r="BK2" t="n">
-        <v>19.33524</v>
+        <v>17.29764000000001</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.27962</v>
+        <v>5.830479999999997</v>
       </c>
       <c r="BM2" t="n">
-        <v>47.56824000000005</v>
+        <v>16.77642999999998</v>
       </c>
       <c r="BN2" t="n">
-        <v>13.87147000000001</v>
+        <v>153.9462200000002</v>
       </c>
       <c r="BO2" t="n">
-        <v>10.80247</v>
+        <v>60.82634999999996</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.7175499999999999</v>
+        <v>8.011349999999997</v>
       </c>
       <c r="BQ2" t="n">
-        <v>15.74961999999999</v>
+        <v>0.9570999999999997</v>
       </c>
       <c r="BR2" t="n">
-        <v>20.50291999999999</v>
+        <v>19.0468</v>
       </c>
       <c r="BS2" t="n">
-        <v>62.42172000000009</v>
+        <v>34.01055999999998</v>
       </c>
       <c r="BT2" t="n">
-        <v>26.61485999999995</v>
+        <v>81.11784999999988</v>
       </c>
       <c r="BU2" t="n">
-        <v>61.43971000000015</v>
+        <v>22.60690999999998</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.43488</v>
+        <v>214.7725700000003</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.11345</v>
+        <v>1.55762</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.01024</v>
+        <v>0.13495</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.00847</v>
+        <v>0.00285</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.11407</v>
+        <v>0.50347</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.11568</v>
+        <v>0.13557</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.46493</v>
+        <v>0.13557</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.03583</v>
+        <v>0.00124</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.27406</v>
+        <v>0.07007999999999999</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.11715</v>
+        <v>0.6005</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.55202</v>
+        <v>0.00163</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.66038</v>
+        <v>2.08327</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.089579999999999</v>
+        <v>2.82049</v>
       </c>
       <c r="CI2" t="n">
-        <v>2.0612</v>
+        <v>6.374219999999999</v>
       </c>
       <c r="CJ2" t="n">
-        <v>5.309089999999999</v>
+        <v>10.22788</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.82275</v>
+        <v>3.819400000000001</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.60036</v>
+        <v>6.158479999999999</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.07085</v>
+        <v>1.456990000000001</v>
       </c>
       <c r="CN2" t="n">
-        <v>4.58104</v>
+        <v>2.95372</v>
       </c>
       <c r="CO2" t="n">
-        <v>12.96775</v>
+        <v>5.377359999999996</v>
       </c>
       <c r="CP2" t="n">
-        <v>9.570089999999999</v>
+        <v>7.825739999999999</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.06344999999999999</v>
+        <v>1.88041</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.34342</v>
+        <v>2.1172</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.74773</v>
+        <v>15.37188</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.35495</v>
+        <v>1.30533</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.03546</v>
+        <v>7.554459999999997</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.61621</v>
+        <v>0.41155</v>
       </c>
       <c r="CW2" t="n">
-        <v>11.09288</v>
+        <v>1.72367</v>
       </c>
       <c r="CX2" t="n">
-        <v>5.542170000000001</v>
+        <v>1.27098</v>
       </c>
       <c r="CY2" t="n">
-        <v>16.98027000000001</v>
+        <v>16.42126</v>
       </c>
       <c r="CZ2" t="n">
-        <v>19.34691999999999</v>
+        <v>6.422080000000002</v>
       </c>
       <c r="DA2" t="n">
-        <v>5.839270000000003</v>
+        <v>11.48204000000001</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.649869999999998</v>
+        <v>11.98945000000001</v>
       </c>
       <c r="DC2" t="n">
-        <v>41.21034000000002</v>
+        <v>2.611279999999998</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.128279999999999</v>
+        <v>15.48920000000001</v>
       </c>
       <c r="DE2" t="n">
-        <v>40.50816</v>
+        <v>8.923349999999997</v>
       </c>
       <c r="DF2" t="n">
-        <v>9.629600000000002</v>
+        <v>1.495629999999999</v>
       </c>
       <c r="DG2" t="n">
-        <v>14.44219000000002</v>
+        <v>4.316249999999999</v>
       </c>
       <c r="DH2" t="n">
-        <v>21.78014999999999</v>
+        <v>7.129689999999997</v>
       </c>
       <c r="DI2" t="n">
-        <v>11.09612999999999</v>
+        <v>32.14659999999993</v>
       </c>
       <c r="DJ2" t="n">
-        <v>50.24946</v>
+        <v>9.480950000000005</v>
       </c>
       <c r="DK2" t="n">
-        <v>23.96342000000002</v>
+        <v>12.99591000000001</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>8.36364</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.54833</v>
+        <v>32.81235000000002</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01871</v>
+        <v>1.69257</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.6352099999999998</v>
+        <v>0.50632</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.50076</v>
+        <v>0.16269</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.39121</v>
+        <v>0.07131999999999999</v>
       </c>
       <c r="DR2" t="n">
-        <v>4.2124</v>
+        <v>0.6021299999999999</v>
       </c>
       <c r="DS2" t="n">
-        <v>7.150779999999995</v>
+        <v>4.903760000000001</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.131839999999995</v>
+        <v>16.6021</v>
       </c>
       <c r="DU2" t="n">
-        <v>5.671209999999997</v>
+        <v>9.977880000000001</v>
       </c>
       <c r="DV2" t="n">
-        <v>17.54879</v>
+        <v>4.410710000000002</v>
       </c>
       <c r="DW2" t="n">
-        <v>9.633539999999998</v>
+        <v>13.20309999999999</v>
       </c>
       <c r="DX2" t="n">
-        <v>6.091150000000001</v>
+        <v>3.997609999999999</v>
       </c>
       <c r="DY2" t="n">
-        <v>5.00662</v>
+        <v>16.67721000000001</v>
       </c>
       <c r="DZ2" t="n">
-        <v>52.96224</v>
+        <v>9.689679999999992</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.489140000000001</v>
+        <v>35.59636000000001</v>
       </c>
       <c r="EB2" t="n">
-        <v>45.33862000000002</v>
+        <v>14.60073000000001</v>
       </c>
       <c r="EC2" t="n">
-        <v>50.13776000000004</v>
+        <v>24.41255</v>
       </c>
       <c r="ED2" t="n">
-        <v>47.31847000000015</v>
+        <v>5.811879999999999</v>
       </c>
       <c r="EE2" t="n">
-        <v>74.21288000000001</v>
+        <v>48.75724000000005</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.190930000000001</v>
+        <v>21.35954999999999</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.9032899999999999</v>
+        <v>2.313230000000001</v>
       </c>
       <c r="EH2" t="n">
-        <v>23.16623000000004</v>
+        <v>0.7217999999999999</v>
       </c>
       <c r="EI2" t="n">
-        <v>38.2801</v>
+        <v>35.89444999999998</v>
       </c>
       <c r="EJ2" t="n">
-        <v>61.45138000000013</v>
+        <v>43.5676</v>
       </c>
       <c r="EK2" t="n">
-        <v>95.47637999999999</v>
+        <v>50.19709000000009</v>
       </c>
       <c r="EL2" t="n">
-        <v>121.5313500000002</v>
+        <v>30.22442999999995</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>70.11679000000018</v>
       </c>
     </row>
     <row r="3">
@@ -1576,428 +1586,433 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43808.24000000</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>225.3935400000021</v>
+          <t>43730.16000000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>43716.43664652</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>338.8605700000013</v>
+        <v>409.9616500000033</v>
       </c>
       <c r="E3" t="n">
-        <v>2.04969</v>
+        <v>270.8351700000033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009090000000000001</v>
+        <v>5.15379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00345</v>
+        <v>0.00347</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01115</v>
+        <v>0.009330000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.12949</v>
+        <v>0.8820899999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009710000000000002</v>
+        <v>0.11657</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00283</v>
+        <v>0.0057</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009090000000000001</v>
+        <v>0.00124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00345</v>
+        <v>0.5984900000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01821</v>
+        <v>0.18227</v>
       </c>
       <c r="O3" t="n">
-        <v>2.067890000000001</v>
+        <v>0.7841599999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>3.656780000000001</v>
+        <v>1.70546</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56435</v>
+        <v>1.76013</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15542</v>
+        <v>4.072879999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>2.271770000000001</v>
+        <v>3.0942</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58905</v>
+        <v>0.31373</v>
       </c>
       <c r="U3" t="n">
-        <v>3.67729</v>
+        <v>3.484</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94682</v>
+        <v>3.15437</v>
       </c>
       <c r="W3" t="n">
-        <v>0.18485</v>
+        <v>0.9067499999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>1.06975</v>
+        <v>2.45133</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.98396</v>
+        <v>1.71729</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.41653</v>
+        <v>6.21047</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.60099</v>
+        <v>13.43691</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.32054</v>
+        <v>1.749</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.788809999999999</v>
+        <v>1.32907</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.23014</v>
+        <v>1.83338</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1521</v>
+        <v>2.98992</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02005</v>
+        <v>2.36589</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.1448</v>
+        <v>9.078800000000003</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.392899999999999</v>
+        <v>5.12378</v>
       </c>
       <c r="AI3" t="n">
-        <v>18.00539000000001</v>
+        <v>6.741219999999998</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.748000000000005</v>
+        <v>43.07755</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3062400000000003</v>
+        <v>6.175950000000005</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.558520000000003</v>
+        <v>11.05202000000001</v>
       </c>
       <c r="AM3" t="n">
-        <v>15.23637000000001</v>
+        <v>0.9108299999999999</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.46004</v>
+        <v>4.83405</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.325250000000003</v>
+        <v>2.50003</v>
       </c>
       <c r="AP3" t="n">
-        <v>12.46506000000002</v>
+        <v>14.32756000000001</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.200139999999993</v>
+        <v>31.64835999999998</v>
       </c>
       <c r="AR3" t="n">
-        <v>31.76183999999997</v>
+        <v>37.23855999999996</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.187140000000005</v>
+        <v>85.05930000000004</v>
       </c>
       <c r="AT3" t="n">
-        <v>20.79047</v>
+        <v>27.07235999999997</v>
       </c>
       <c r="AU3" t="n">
-        <v>28.79996999999998</v>
+        <v>33.75319000000001</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.05878</v>
+        <v>31.03998000000001</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0146</v>
+        <v>5.157259999999999</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.20736</v>
+        <v>0.89142</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01192</v>
+        <v>0.13849</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.02166</v>
+        <v>0.59973</v>
       </c>
       <c r="BA3" t="n">
-        <v>5.724669999999998</v>
+        <v>0.9664299999999999</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.719770000000001</v>
+        <v>3.465590000000001</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.86082</v>
+        <v>7.167079999999994</v>
       </c>
       <c r="BD3" t="n">
-        <v>5.62411</v>
+        <v>3.79773</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.2546</v>
+        <v>4.06112</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.400489999999999</v>
+        <v>4.168619999999999</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.92153</v>
+        <v>19.64738</v>
       </c>
       <c r="BH3" t="n">
-        <v>10.17105</v>
+        <v>3.07807</v>
       </c>
       <c r="BI3" t="n">
-        <v>43.56314000000002</v>
+        <v>7.18919</v>
       </c>
       <c r="BJ3" t="n">
-        <v>10.05424000000002</v>
+        <v>64.02134999999998</v>
       </c>
       <c r="BK3" t="n">
-        <v>19.79488999999999</v>
+        <v>17.22797000000001</v>
       </c>
       <c r="BL3" t="n">
-        <v>8.785290000000005</v>
+        <v>5.744879999999998</v>
       </c>
       <c r="BM3" t="n">
-        <v>47.42704000000009</v>
+        <v>16.82758999999998</v>
       </c>
       <c r="BN3" t="n">
-        <v>26.97761</v>
+        <v>153.9462200000002</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.271649999999999</v>
+        <v>60.82554999999996</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.04267</v>
+        <v>6.170269999999996</v>
       </c>
       <c r="BQ3" t="n">
-        <v>17.92936999999999</v>
+        <v>1.58306</v>
       </c>
       <c r="BR3" t="n">
-        <v>19.74767</v>
+        <v>18.49152</v>
       </c>
       <c r="BS3" t="n">
-        <v>53.61738000000006</v>
+        <v>34.08325999999998</v>
       </c>
       <c r="BT3" t="n">
-        <v>28.58017999999995</v>
+        <v>81.24931999999986</v>
       </c>
       <c r="BU3" t="n">
-        <v>74.40465000000019</v>
+        <v>22.57246999999998</v>
       </c>
       <c r="BV3" t="n">
-        <v>9.130750000000001</v>
+        <v>214.7717700000003</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.6245</v>
+        <v>4.930559999999999</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.07545</v>
+        <v>0.20379</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.00285</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.62671</v>
+        <v>0.00347</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.62512</v>
+        <v>0.20441</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.44149</v>
+        <v>0.20441</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.35755</v>
+        <v>0.07008</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.11715</v>
+        <v>0.00124</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.05114</v>
+        <v>0.14102</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.73476</v>
+        <v>0.00163</v>
       </c>
       <c r="CG3" t="n">
-        <v>5.245479999999995</v>
+        <v>2.63876</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.5653</v>
+        <v>1.69376</v>
       </c>
       <c r="CI3" t="n">
-        <v>3.37385</v>
+        <v>14.77668</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4.886759999999998</v>
+        <v>2.15928</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.9927899999999998</v>
+        <v>7.223529999999997</v>
       </c>
       <c r="CL3" t="n">
-        <v>2.02375</v>
+        <v>5.698479999999999</v>
       </c>
       <c r="CM3" t="n">
-        <v>4.270089999999999</v>
+        <v>1.07802</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.13438</v>
+        <v>2.88398</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.02985</v>
+        <v>5.801339999999996</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.54618</v>
+        <v>7.747329999999999</v>
       </c>
       <c r="CQ3" t="n">
-        <v>5.442459999999999</v>
+        <v>1.03536</v>
       </c>
       <c r="CR3" t="n">
-        <v>12.30978</v>
+        <v>2.18752</v>
       </c>
       <c r="CS3" t="n">
-        <v>8.282019999999999</v>
+        <v>20.13273</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.72174</v>
+        <v>1.28033</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.45092</v>
+        <v>1.75153</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.2</v>
+        <v>0.41786</v>
       </c>
       <c r="CW3" t="n">
-        <v>3.34255</v>
+        <v>1.81039</v>
       </c>
       <c r="CX3" t="n">
-        <v>14.20011</v>
+        <v>1.72785</v>
       </c>
       <c r="CY3" t="n">
-        <v>13.77714</v>
+        <v>15.96444</v>
       </c>
       <c r="CZ3" t="n">
-        <v>15.90871</v>
+        <v>6.385120000000001</v>
       </c>
       <c r="DA3" t="n">
-        <v>6.344010000000005</v>
+        <v>11.48443000000001</v>
       </c>
       <c r="DB3" t="n">
-        <v>3.961739999999999</v>
+        <v>12.10420000000001</v>
       </c>
       <c r="DC3" t="n">
-        <v>41.30082</v>
+        <v>3.111279999999998</v>
       </c>
       <c r="DD3" t="n">
-        <v>4.954640000000001</v>
+        <v>15.48920000000001</v>
       </c>
       <c r="DE3" t="n">
-        <v>38.61037999999999</v>
+        <v>8.923349999999997</v>
       </c>
       <c r="DF3" t="n">
-        <v>9.12097</v>
+        <v>1.995629999999999</v>
       </c>
       <c r="DG3" t="n">
-        <v>13.66598000000002</v>
+        <v>4.316249999999999</v>
       </c>
       <c r="DH3" t="n">
-        <v>22.46205999999999</v>
+        <v>7.629689999999997</v>
       </c>
       <c r="DI3" t="n">
-        <v>10.82261999999999</v>
+        <v>32.14659999999993</v>
       </c>
       <c r="DJ3" t="n">
-        <v>50.49445000000001</v>
+        <v>9.480950000000005</v>
       </c>
       <c r="DK3" t="n">
-        <v>15.44533000000002</v>
+        <v>12.99591000000001</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.3080700000000001</v>
+        <v>8.364040000000001</v>
       </c>
       <c r="DM3" t="n">
-        <v>10.75525</v>
+        <v>32.32865000000001</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.08330000000000001</v>
+        <v>5.134349999999999</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.125</v>
+        <v>0.00632</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.79904</v>
+        <v>0.7160599999999999</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.16829</v>
+        <v>0.07131999999999999</v>
       </c>
       <c r="DR3" t="n">
-        <v>6.980239999999996</v>
+        <v>0.14265</v>
       </c>
       <c r="DS3" t="n">
-        <v>5.939149999999998</v>
+        <v>4.332520000000001</v>
       </c>
       <c r="DT3" t="n">
-        <v>5.879549999999994</v>
+        <v>16.93596</v>
       </c>
       <c r="DU3" t="n">
-        <v>6.293839999999998</v>
+        <v>12.92201</v>
       </c>
       <c r="DV3" t="n">
-        <v>3.16423</v>
+        <v>3.962</v>
       </c>
       <c r="DW3" t="n">
-        <v>6.988639999999998</v>
+        <v>13.54866999999999</v>
       </c>
       <c r="DX3" t="n">
-        <v>20.5918</v>
+        <v>3.22288</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.372659999999999</v>
+        <v>21.41306</v>
       </c>
       <c r="DZ3" t="n">
-        <v>47.22850999999999</v>
+        <v>3.979780000000002</v>
       </c>
       <c r="EA3" t="n">
-        <v>10.30575000000001</v>
+        <v>35.56184000000002</v>
       </c>
       <c r="EB3" t="n">
-        <v>46.25546000000003</v>
+        <v>15.21548000000001</v>
       </c>
       <c r="EC3" t="n">
-        <v>47.73135000000003</v>
+        <v>24.41255</v>
       </c>
       <c r="ED3" t="n">
-        <v>46.95066000000013</v>
+        <v>6.311880000000007</v>
       </c>
       <c r="EE3" t="n">
-        <v>65.93978000000001</v>
+        <v>49.25724000000006</v>
       </c>
       <c r="EF3" t="n">
-        <v>10.95446</v>
+        <v>21.35994999999999</v>
       </c>
       <c r="EG3" t="n">
-        <v>3.97642</v>
+        <v>5.483659999999997</v>
       </c>
       <c r="EH3" t="n">
-        <v>25.09278000000004</v>
+        <v>0.5870400000000001</v>
       </c>
       <c r="EI3" t="n">
-        <v>34.11733000000001</v>
+        <v>38.15248999999994</v>
       </c>
       <c r="EJ3" t="n">
-        <v>57.5342600000001</v>
+        <v>42.16438999999999</v>
       </c>
       <c r="EK3" t="n">
-        <v>93.98681000000003</v>
+        <v>50.7773200000001</v>
       </c>
       <c r="EL3" t="n">
-        <v>112.8904400000002</v>
+        <v>30.72442999999995</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>70.61719000000019</v>
       </c>
     </row>
   </sheetData>

--- a/OrdBookBids.xlsx
+++ b/OrdBookBids.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EM3"/>
+  <dimension ref="A1:EM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,433 +1151,433 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43730.16000000</t>
+          <t>43775.99000000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43716.27252902</t>
+          <t>43764.18291314</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>411.6148500000034</v>
+        <v>382.127770000003</v>
       </c>
       <c r="E2" t="n">
-        <v>265.8477400000031</v>
+        <v>489.2598700000009</v>
       </c>
       <c r="F2" t="n">
-        <v>7.155920000000001</v>
+        <v>11.88044</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17215</v>
+        <v>4.21052</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009110000000000002</v>
+        <v>0.00343</v>
       </c>
       <c r="I2" t="n">
-        <v>0.55258</v>
+        <v>1.30995</v>
       </c>
       <c r="J2" t="n">
-        <v>0.28525</v>
+        <v>4.21271</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3401500000000001</v>
+        <v>4.21271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02907</v>
+        <v>0.00699</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5984900000000001</v>
+        <v>1.09515</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0242</v>
+        <v>0.37211</v>
       </c>
       <c r="O2" t="n">
-        <v>0.12221</v>
+        <v>1.26722</v>
       </c>
       <c r="P2" t="n">
-        <v>2.65708</v>
+        <v>3.283300000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32004</v>
+        <v>2.012040000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>4.699689999999998</v>
+        <v>0.49299</v>
       </c>
       <c r="S2" t="n">
-        <v>3.519150000000001</v>
+        <v>3.33512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.30882</v>
+        <v>0.9217499999999998</v>
       </c>
       <c r="U2" t="n">
-        <v>3.43496</v>
+        <v>5.212999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>2.18229</v>
+        <v>2.50488</v>
       </c>
       <c r="W2" t="n">
-        <v>0.92477</v>
+        <v>2.37972</v>
       </c>
       <c r="X2" t="n">
-        <v>2.45189</v>
+        <v>1.35843</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.71729</v>
+        <v>1.91264</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.14186</v>
+        <v>1.77149</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.43713</v>
+        <v>4.494549999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.749</v>
+        <v>2.770060000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.32907</v>
+        <v>4.9141</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.83338</v>
+        <v>0.95716</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.98992</v>
+        <v>2.538170000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.36102</v>
+        <v>2.4947</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.074540000000002</v>
+        <v>3.402980000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.12378</v>
+        <v>11.90028</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.229209999999998</v>
+        <v>20.04793999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>43.39268000000001</v>
+        <v>18.76077000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.241490000000005</v>
+        <v>11.76166</v>
       </c>
       <c r="AL2" t="n">
-        <v>11.05615000000001</v>
+        <v>1.5322</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9108299999999999</v>
+        <v>2.705430000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.919649999999999</v>
+        <v>1.94496</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.44887</v>
+        <v>20.96095</v>
       </c>
       <c r="AP2" t="n">
-        <v>14.32756000000001</v>
+        <v>0.8483700000000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>31.64835999999998</v>
+        <v>21.59136999999996</v>
       </c>
       <c r="AR2" t="n">
-        <v>37.23855999999996</v>
+        <v>40.31453000000002</v>
       </c>
       <c r="AS2" t="n">
-        <v>85.05930000000004</v>
+        <v>22.43653999999997</v>
       </c>
       <c r="AT2" t="n">
-        <v>27.07235999999997</v>
+        <v>34.11488999999998</v>
       </c>
       <c r="AU2" t="n">
-        <v>33.75399000000001</v>
+        <v>12.49437000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>31.09171000000001</v>
+        <v>92.93582000000022</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.32807</v>
+        <v>16.09096</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.5616899999999999</v>
+        <v>1.31338</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.30472</v>
+        <v>0.8748</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.62756</v>
+        <v>1.10214</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.14641</v>
+        <v>1.63933</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.977120000000001</v>
+        <v>5.295339999999999</v>
       </c>
       <c r="BC2" t="n">
-        <v>8.218839999999991</v>
+        <v>3.82811</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.74378</v>
+        <v>6.134749999999999</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.107059999999999</v>
+        <v>4.884600000000001</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.169179999999999</v>
+        <v>3.271070000000001</v>
       </c>
       <c r="BG2" t="n">
-        <v>19.57899</v>
+        <v>6.266039999999999</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.07807</v>
+        <v>7.684160000000001</v>
       </c>
       <c r="BI2" t="n">
-        <v>7.18432</v>
+        <v>5.990030000000001</v>
       </c>
       <c r="BJ2" t="n">
-        <v>63.82021</v>
+        <v>54.11197</v>
       </c>
       <c r="BK2" t="n">
-        <v>17.29764000000001</v>
+        <v>13.29386</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.830479999999997</v>
+        <v>4.650389999999999</v>
       </c>
       <c r="BM2" t="n">
-        <v>16.77642999999998</v>
+        <v>21.80931999999997</v>
       </c>
       <c r="BN2" t="n">
-        <v>153.9462200000002</v>
+        <v>84.34244000000008</v>
       </c>
       <c r="BO2" t="n">
-        <v>60.82634999999996</v>
+        <v>46.60926000000006</v>
       </c>
       <c r="BP2" t="n">
-        <v>8.011349999999997</v>
+        <v>17.40777</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.9570999999999997</v>
+        <v>3.61284</v>
       </c>
       <c r="BR2" t="n">
-        <v>19.0468</v>
+        <v>20.1428</v>
       </c>
       <c r="BS2" t="n">
-        <v>34.01055999999998</v>
+        <v>23.21129999999999</v>
       </c>
       <c r="BT2" t="n">
-        <v>81.11784999999988</v>
+        <v>67.40583000000004</v>
       </c>
       <c r="BU2" t="n">
-        <v>22.60690999999998</v>
+        <v>26.45970999999996</v>
       </c>
       <c r="BV2" t="n">
-        <v>214.7725700000003</v>
+        <v>130.9517000000002</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.55762</v>
+        <v>0.28385</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.13495</v>
+        <v>0.00343</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.00285</v>
+        <v>0.01885</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.50347</v>
+        <v>0.00937</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.13557</v>
+        <v>0.52361</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.13557</v>
+        <v>0.00405</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00124</v>
+        <v>0.01624</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.07007999999999999</v>
+        <v>0.00324</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.6005</v>
+        <v>0.03115</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00163</v>
+        <v>0.15797</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.08327</v>
+        <v>0.6333799999999999</v>
       </c>
       <c r="CH2" t="n">
-        <v>2.82049</v>
+        <v>0.7506299999999998</v>
       </c>
       <c r="CI2" t="n">
-        <v>6.374219999999999</v>
+        <v>1.42751</v>
       </c>
       <c r="CJ2" t="n">
-        <v>10.22788</v>
+        <v>3.08099</v>
       </c>
       <c r="CK2" t="n">
-        <v>3.819400000000001</v>
+        <v>3.69064</v>
       </c>
       <c r="CL2" t="n">
-        <v>6.158479999999999</v>
+        <v>1.165110000000001</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.456990000000001</v>
+        <v>1.28634</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.95372</v>
+        <v>10.49497</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.377359999999996</v>
+        <v>6.74829</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.825739999999999</v>
+        <v>3.10869</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.88041</v>
+        <v>2.05743</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.1172</v>
+        <v>1.04911</v>
       </c>
       <c r="CS2" t="n">
-        <v>15.37188</v>
+        <v>3.44208</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.30533</v>
+        <v>1.98539</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.554459999999997</v>
+        <v>2.385339999999999</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.41155</v>
+        <v>1.09544</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.72367</v>
+        <v>2.2884</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.27098</v>
+        <v>3.4581</v>
       </c>
       <c r="CY2" t="n">
-        <v>16.42126</v>
+        <v>16.92310000000001</v>
       </c>
       <c r="CZ2" t="n">
-        <v>6.422080000000002</v>
+        <v>9.413260000000003</v>
       </c>
       <c r="DA2" t="n">
-        <v>11.48204000000001</v>
+        <v>11.20942000000001</v>
       </c>
       <c r="DB2" t="n">
-        <v>11.98945000000001</v>
+        <v>9.368300000000001</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.611279999999998</v>
+        <v>15.11724</v>
       </c>
       <c r="DD2" t="n">
-        <v>15.48920000000001</v>
+        <v>19.5513</v>
       </c>
       <c r="DE2" t="n">
-        <v>8.923349999999997</v>
+        <v>72.18511000000002</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.495629999999999</v>
+        <v>4.453270000000003</v>
       </c>
       <c r="DG2" t="n">
-        <v>4.316249999999999</v>
+        <v>7.853340000000003</v>
       </c>
       <c r="DH2" t="n">
-        <v>7.129689999999997</v>
+        <v>99.21242999999998</v>
       </c>
       <c r="DI2" t="n">
-        <v>32.14659999999993</v>
+        <v>23.23735000000002</v>
       </c>
       <c r="DJ2" t="n">
-        <v>9.480950000000005</v>
+        <v>52.05045</v>
       </c>
       <c r="DK2" t="n">
-        <v>12.99591000000001</v>
+        <v>36.54617999999999</v>
       </c>
       <c r="DL2" t="n">
-        <v>8.36364</v>
+        <v>60.76111</v>
       </c>
       <c r="DM2" t="n">
-        <v>32.81235000000002</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.69257</v>
+        <v>0.28728</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.50632</v>
+        <v>0.02822</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.16269</v>
+        <v>0.70607</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.07131999999999999</v>
+        <v>0.01948</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.6021299999999999</v>
+        <v>0.18912</v>
       </c>
       <c r="DS2" t="n">
-        <v>4.903760000000001</v>
+        <v>1.38401</v>
       </c>
       <c r="DT2" t="n">
-        <v>16.6021</v>
+        <v>4.5085</v>
       </c>
       <c r="DU2" t="n">
-        <v>9.977880000000001</v>
+        <v>4.855749999999997</v>
       </c>
       <c r="DV2" t="n">
-        <v>4.410710000000002</v>
+        <v>11.78131</v>
       </c>
       <c r="DW2" t="n">
-        <v>13.20309999999999</v>
+        <v>9.856980000000002</v>
       </c>
       <c r="DX2" t="n">
-        <v>3.997609999999999</v>
+        <v>3.106539999999999</v>
       </c>
       <c r="DY2" t="n">
-        <v>16.67721000000001</v>
+        <v>5.42747</v>
       </c>
       <c r="DZ2" t="n">
-        <v>9.689679999999992</v>
+        <v>5.769179999999998</v>
       </c>
       <c r="EA2" t="n">
-        <v>35.59636000000001</v>
+        <v>41.00388000000008</v>
       </c>
       <c r="EB2" t="n">
-        <v>14.60073000000001</v>
+        <v>24.48553999999999</v>
       </c>
       <c r="EC2" t="n">
-        <v>24.41255</v>
+        <v>91.73640999999999</v>
       </c>
       <c r="ED2" t="n">
-        <v>5.811879999999999</v>
+        <v>12.30661000000001</v>
       </c>
       <c r="EE2" t="n">
-        <v>48.75724000000005</v>
+        <v>174.5002300000006</v>
       </c>
       <c r="EF2" t="n">
-        <v>21.35954999999999</v>
+        <v>97.30729000000007</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.313230000000001</v>
+        <v>0.8523400000000001</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.7217999999999999</v>
+        <v>0.3778300000000001</v>
       </c>
       <c r="EI2" t="n">
-        <v>35.89444999999998</v>
+        <v>22.52956999999999</v>
       </c>
       <c r="EJ2" t="n">
-        <v>43.5676</v>
+        <v>24.16017</v>
       </c>
       <c r="EK2" t="n">
-        <v>50.19709000000009</v>
+        <v>65.48942000000008</v>
       </c>
       <c r="EL2" t="n">
-        <v>30.22442999999995</v>
+        <v>104.04302</v>
       </c>
       <c r="EM2" t="n">
-        <v>70.11679000000018</v>
+        <v>271.807520000001</v>
       </c>
     </row>
     <row r="3">
@@ -1586,433 +1586,8263 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>43730.16000000</t>
+          <t>43776.12000000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43716.43664652</t>
+          <t>43764.34109439</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>409.9616500000033</v>
+        <v>380.676230000003</v>
       </c>
       <c r="E3" t="n">
-        <v>270.8351700000033</v>
+        <v>492.2509700000011</v>
       </c>
       <c r="F3" t="n">
-        <v>5.15379</v>
+        <v>11.84059</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00347</v>
+        <v>0.00281</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009330000000000001</v>
+        <v>0.8762599999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8820899999999999</v>
+        <v>0.78816</v>
       </c>
       <c r="J3" t="n">
-        <v>0.11657</v>
+        <v>0.00583</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0057</v>
+        <v>0.34698</v>
       </c>
       <c r="L3" t="n">
+        <v>0.3904300000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.72097</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.11784</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.5797199999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.769280000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.58755</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.54531</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.02187</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.37293</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.214569999999998</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.505500000000001</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.9161</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.27253</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.368050000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.244090000000001</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4.452559999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.27703</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.1065</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.04381</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.535980000000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.8091900000000001</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.07846</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12.41045</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>18.77912</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19.90655000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>10.65191</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.5895</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2.74634</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.95223</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>19.78578</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.982409999999999</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21.59904999999996</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>40.31566000000002</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>22.43050999999997</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>34.11676999999998</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>12.49162000000001</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>92.59765000000021</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>11.8434</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.66442</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.8825900000000001</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.1114</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.69756</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>5.35683</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6.56718</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>6.587499999999999</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4.421600000000002</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.640580000000001</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>7.696650000000001</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7.383530000000001</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>4.388980000000001</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>55.17458</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>12.24141000000001</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>4.698569999999999</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>21.76818999999997</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>84.34522000000007</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>46.60839000000006</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>13.97809</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3.22128</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>22.93311000000001</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>23.10974</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>67.41599000000004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>26.46675999999996</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>130.9536100000002</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.22683</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.02541</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.25054</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.01686</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.00262</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.18788</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.00339</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.22528</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.4975000000000001</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.9598699999999998</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>2.95905</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3.25976</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>2.08331</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1.30309</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>10.55995</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>6.033710000000001</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>4.06795</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>2.96205</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.46049</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3.08489</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>4.06389</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1.45353</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1.04788</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>2.22082</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>3.08975</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>18.19240000000001</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>10.35903</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>10.95919</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>8.79069</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>15.22926</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>19.54697</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>72.27013000000001</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>4.368770000000002</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>8.054440000000001</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>99.47099999999999</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>23.14628000000002</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>52.14727000000001</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>36.59914999999999</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>60.04938</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1.22964</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.02884</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.26501</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.01948</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.19127</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>1.72278</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3.91892</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>5.343069999999998</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>11.86304</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>10.10166</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3.422539999999999</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>7.14878</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>4.72223</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>42.60037000000008</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>24.01994999999999</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>91.8171</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>12.42321000000001</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>174.7645500000006</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>96.64853000000004</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>1.52225</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.21199</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>22.84780999999999</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>25.39521</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>66.62032000000008</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>104.2403100000001</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>271.413080000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>43776.11000000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>43764.96528557</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>379.8127500000029</v>
+      </c>
+      <c r="E4" t="n">
+        <v>492.357880000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.36333</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.28281</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5962599999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.78816</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.28583</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.62698</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3904300000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.00097</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.83784</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5797199999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.373620000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05165</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.52666</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.70723</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.60929</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5.216109999999998</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.505500000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.9161</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.6505300000000002</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.91334</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.241900000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4.45276</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2.27683</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.08785</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.50084</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.993010000000001</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.01505</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.415510000000001</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11.81093</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>18.77912</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19.84242000000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>10.59591</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.5898</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.74604</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.95223</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>20.96077</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.8074200000000001</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21.59904999999996</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>40.31566000000002</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>22.43050999999997</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>34.11676999999998</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>12.49162000000001</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>92.60233000000022</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>12.64614</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.38442</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.87887</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.3914</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.41756</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>5.42527</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7.23389</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>5.825399999999999</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>4.421600000000002</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2.563870000000001</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>7.694660000000001</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>7.364680000000001</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>5.508899999999996</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>53.84798000000001</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12.18571000000001</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>4.698269999999998</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>21.76818999999997</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>84.34522000000007</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>46.60839000000006</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>14.49711</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>3.22128</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>22.90616000000001</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>23.13210999999999</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>66.03369000000004</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>26.46645999999996</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>130.9536100000002</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1.17293</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.009990000000000001</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.21963</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.00262</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.18788</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.23169</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.9969999999999999</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.4975000000000001</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.8599299999999998</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>3.07851</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>4.17322</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>2.08331</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1.34373</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>10.41217</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>6.1854</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>4.06795</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>2.96205</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.46049</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>2.62255</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>3.6076</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1.46249</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1.04788</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>2.22082</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>3.11177</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>18.13418000000001</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>10.68903</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>10.78783</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>8.46069</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>15.2297</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>19.54697</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>72.63013000000001</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>4.368290000000003</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>7.853190000000003</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>99.67272999999999</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>23.14628000000002</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>52.14727000000001</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>36.59914999999999</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>60.03438999999999</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>1.17574</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.02884</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.01728</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.22225</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.4195699999999999</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1.4945</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>3.93844</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>6.256529999999997</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>11.7559</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>10.25335</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>3.422539999999999</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>6.230149999999998</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>4.731189999999999</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>42.72281000000009</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>23.69038999999999</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>92.17709999999998</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>12.22148000000001</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>174.9662800000006</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>96.63354000000004</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>1.22062</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.6430600000000001</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>23.44536999999999</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>24.63723</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>66.41320000000007</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>104.39858</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>271.599820000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>43776.11000000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>43764.97585595</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>379.531130000003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>492.811540000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.00793</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.28281</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5505899999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.78816</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.28583</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.62698</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3904300000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.00097</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.83784</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5797199999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.305090000000001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.13883</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.52666</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.70723</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6792900000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.216109999999998</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.505500000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.9161</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6505300000000002</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.91334</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.241900000000001</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>4.455069999999999</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.27683</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.08785</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.53446</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.993010000000001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.01505</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3.423140000000001</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.80673</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>18.77525</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19.84242000000001</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>10.59977</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.58593</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.74604</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.95223</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>20.96077</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.8074200000000001</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>21.59904999999996</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>40.31566000000002</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>22.43050999999997</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>34.11676999999998</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>12.49162000000001</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>92.59765000000021</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>12.29074</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.33875</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.87887</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.3914</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.41756</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>5.44392</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>7.23389</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>5.8954</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4.421600000000002</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.563870000000001</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>7.69697</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>7.364680000000001</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>5.542519999999997</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>53.84754</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>12.18570000000001</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>4.698269999999998</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>21.76818999999997</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>84.34522000000007</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>46.60839000000006</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>14.09604</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>3.22128</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>22.99481000000001</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>23.16803999999999</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>66.03324000000003</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>26.46645999999996</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>130.9536100000002</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1.17965</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.009990000000000001</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.29103</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.04482000000000001</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.00262</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.18788</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.45999</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.7686999999999999</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.4975000000000001</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.8964699999999998</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>3.07851</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>4.17322</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>2.08331</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>1.34373</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>10.46457</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>6.187970000000001</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>4.06795</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>2.94127</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>2.62255</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>3.60528</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>1.46481</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1.04788</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>2.22082</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>3.158090000000001</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>18.13649000000001</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>10.88903</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>10.78783</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>8.46069</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>15.2297</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>19.54697</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>72.63013000000001</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>4.368290000000003</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>7.853190000000003</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>99.67272999999999</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>23.14628000000002</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>52.14773000000001</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>36.59914999999999</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>60.02728999999999</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>1.18246</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.02884</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.3055</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.04744000000000001</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.6478700000000001</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>1.2662</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>3.97498</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>6.256529999999997</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>11.8083</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>10.25592</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>3.422569999999999</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>6.227829999999999</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>4.733509999999999</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>42.97144000000008</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>23.69038999999999</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>92.17709999999998</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>12.22148000000001</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>174.9667400000006</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>96.62644000000004</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>1.51556</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0.6965500000000001</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>23.30600999999999</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>24.63983</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>66.66183000000007</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>104.39858</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>271.593180000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>43765.23171478</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>374.5496300000029</v>
+      </c>
+      <c r="E6" t="n">
+        <v>492.6462400000011</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.65373</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.83195</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.79932</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.35248</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.12653</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.36104</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.163050000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.50472</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.623170000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.63709</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.97429</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.667559999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.468310000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3718</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.92333</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.158680000000001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4.13442</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.688870000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.05707</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.56275</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.97921</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.919920000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11.82434</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>18.37832</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19.42118</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>11.41794</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.96243</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19.73216</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.071819999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>40.31646000000002</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>12.47053000000001</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>84.97100000000023</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>14.65748</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.8353799999999999</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.74998</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.1518</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.48757</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5.66777</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>6.260260000000001</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>6.641849999999999</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3.840110000000001</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>4.20233</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>7.293100000000001</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>7.745940000000001</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>5.058609999999995</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>53.54376000000001</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>13.00357</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>4.697959999999999</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>21.80397999999996</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>84.34958000000007</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>46.58760000000005</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>16.23701</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>2.6452</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>22.40999000000001</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>24.29997999999999</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>66.54733000000004</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>26.50193999999995</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>130.9371800000002</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.7815199999999999</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.01823</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="CC6" t="n">
         <v>0.00124</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.5984900000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.18227</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.7841599999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.70546</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.76013</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.072879999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.0942</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.31373</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.484</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.15437</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.9067499999999999</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.45133</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.71729</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6.21047</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13.43691</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.32907</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.83338</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2.98992</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.36589</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.078800000000003</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.12378</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6.741219999999998</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>43.07755</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>6.175950000000005</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>11.05202000000001</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.9108299999999999</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.83405</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.50003</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>14.32756000000001</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>31.64835999999998</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>37.23855999999996</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>85.05930000000004</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>27.07235999999997</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>33.75319000000001</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>31.03998000000001</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.157259999999999</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.89142</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.13849</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0.59973</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.9664299999999999</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>3.465590000000001</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>7.167079999999994</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>3.79773</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>4.06112</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>4.168619999999999</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>19.64738</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>3.07807</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>7.18919</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>64.02134999999998</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>17.22797000000001</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>5.744879999999998</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>16.82758999999998</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>153.9462200000002</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>60.82554999999996</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>6.170269999999996</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>1.58306</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>18.49152</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>34.08325999999998</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>81.24931999999986</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>22.57246999999998</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>214.7717700000003</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>4.930559999999999</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.20379</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0.00285</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0.00347</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.20441</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0.20441</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.07008</v>
-      </c>
-      <c r="CD3" t="n">
+      <c r="CD6" t="n">
+        <v>0.26083</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.38662</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.52277</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.9587199999999999</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>4.344220000000001</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>3.0143</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1.892970000000001</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>2.55901</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>9.8855</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>5.54354</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>4.0351</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>3.013879999999999</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.5499900000000001</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>2.57004</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>3.56808</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1.48112</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>2.06555</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>1.4184</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>3.1346</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>19.20138000000001</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>10.92274</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>10.03901</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>8.432789999999999</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>15.18477000000001</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>72.65443000000002</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>52.14106000000001</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>60.0046</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.7997499999999998</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.01748</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0.26207</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.4055</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>1.27657</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>5.30294</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>4.907269999999997</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>12.44451</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>9.578640000000002</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>3.563869999999999</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>6.13812</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>4.965069999999999</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>43.29773000000008</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>23.61755999999999</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>92.24628</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>174.7683900000006</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>96.63153000000005</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0.8270199999999996</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.68443</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>23.93128999999999</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>24.24570000000001</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>66.91529000000008</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>104.64259</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>271.399920000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43765.15642890</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>380.3414700000029</v>
+      </c>
+      <c r="E7" t="n">
+        <v>493.5909700000011</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.14253</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.83133</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.25599</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.35448</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.47173</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.01686</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.57212</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.60645</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.502790000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.56923</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.95564</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.756229999999999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.554650000000001</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9886599999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.66214</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.92333</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.158680000000001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4.13442</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3.602810000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.05707</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.10572</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.52218</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3.919920000000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.82434</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19.55774999999999</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18.50650000000001</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>11.41793</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.96243</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19.73216</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.071819999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>40.31646000000002</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>12.47053000000001</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>92.61810000000023</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>12.14596</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.8347599999999999</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1.20363</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.61047</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.48859</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>6.178569999999997</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>6.07202</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>6.711869999999999</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3.543310000000001</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3.585470000000001</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>7.293100000000001</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>8.659880000000001</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>4.144550000000001</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>53.80851000000002</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>13.00356</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>4.697959999999999</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>21.80397999999996</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>84.34958000000007</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>46.58760000000005</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>13.72487</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>3.55854</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>22.50577000000001</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>23.683</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>66.81207000000005</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>26.50193999999995</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>130.9371800000002</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.93526</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.14026</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.14088</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.14088</v>
+      </c>
+      <c r="CC7" t="n">
         <v>0.00124</v>
       </c>
-      <c r="CE3" t="n">
-        <v>0.14102</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>2.63876</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1.69376</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>14.77668</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>2.15928</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>7.223529999999997</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>5.698479999999999</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1.07802</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>2.88398</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>5.801339999999996</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>7.747329999999999</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>1.03536</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>2.18752</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>20.13273</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>1.28033</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>1.75153</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0.41786</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>1.81039</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>1.72785</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>15.96444</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>6.385120000000001</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>11.48443000000001</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>12.10420000000001</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>3.111279999999998</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>15.48920000000001</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>8.923349999999997</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>1.995629999999999</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>4.316249999999999</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>7.629689999999997</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>32.14659999999993</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>9.480950000000005</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>12.99591000000001</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>8.364040000000001</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>32.32865000000001</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>5.134349999999999</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0.00632</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0.7160599999999999</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0.07131999999999999</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.14265</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>4.332520000000001</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>16.93596</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>12.92201</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>13.54866999999999</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>3.22288</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>21.41306</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>3.979780000000002</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>35.56184000000002</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>15.21548000000001</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>24.41255</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>6.311880000000007</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>49.25724000000006</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>21.35994999999999</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>5.483659999999997</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.5870400000000001</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>38.15248999999994</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>42.16438999999999</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>50.7773200000001</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>30.72442999999995</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>70.61719000000019</v>
+      <c r="CD7" t="n">
+        <v>0.48713</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.16032</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.7537999999999999</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.9122599999999995</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>2.419659999999999</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>4.06805</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>3.06934</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>1.902100000000001</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>2.2522</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>9.8855</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>5.54354</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>3.60426</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>2.57833</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.5363100000000001</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>2.58372</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>3.56808</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1.47912</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>3.52754</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>1.23695</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>3.1346</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>17.98973000000001</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>12.01409</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>9.31423</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>8.203059999999999</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>15.18477000000001</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>72.65443000000002</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>52.14106000000001</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>60.0046</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1.07552</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.01748</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.48837</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.1792</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>1.666060000000001</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>6.487709999999997</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>4.971439999999998</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>12.1377</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>9.147800000000002</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>3.11464</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>6.151799999999999</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>6.243609999999999</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>42.4526500000001</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>23.38782999999999</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>92.24628</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>174.7683900000006</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>96.63153000000005</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>1.10279</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.6844299999999999</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>25.26290999999999</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>24.65785000000001</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>65.8404800000001</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>104.64259</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>271.399920000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>43765.32975721</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>379.3144000000029</v>
+      </c>
+      <c r="E8" t="n">
+        <v>495.7072700000011</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.95264</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.83195</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.25599</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.35248</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.12955</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.36104</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.163050000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.48607</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.62317</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.54638</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.95564</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.756229999999999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.05465</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.3718</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.92333</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.158680000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4.13673</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3.6005</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.05707</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.10572</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.52218</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.919920000000001</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11.82434</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19.55774999999999</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>18.47698000000001</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11.41793</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.96243</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19.73216</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.071819999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>12.47053000000001</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>92.62358000000023</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>11.95639</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.8353799999999999</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1.19991</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.60847</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.49059</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5.64912</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6.169549999999999</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>6.711869999999999</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>2.426450000000001</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>4.20233</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>7.29541</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>8.657570000000002</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>4.144550000000001</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>53.77899000000002</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>13.00356</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>4.697959999999999</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>21.80397999999996</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>46.58760000000005</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>13.5322</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>3.55854</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>20.95699000000001</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>24.29985999999999</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>66.78255000000006</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>26.50193999999995</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>131.0587400000002</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.20817</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.30709</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.30771</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.76369</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.03253</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.15832</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.9122599999999995</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>2.419659999999999</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>4.06805</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>3.06934</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>2.304190000000001</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>2.2522</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>9.8855</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>5.54354</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>3.60426</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>2.57833</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.5499900000000001</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>2.57004</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>3.56808</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>1.47912</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>3.52754</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1.23695</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>3.1346</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>17.98973000000001</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>13.29409000000001</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>9.3124</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>8.204889999999999</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>15.18477000000001</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>72.65443000000002</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>52.14106000000001</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>59.99907</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>1.51526</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.47408</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.03377</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.1772</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>1.666060000000001</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>6.487709999999997</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>5.373529999999997</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>12.1377</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>9.147800000000002</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>3.12832</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>6.13812</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>6.243609999999999</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>43.73082000000009</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>23.38965999999999</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>92.24628</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>174.7683900000006</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>96.62600000000006</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>1.54253</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.6844299999999999</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>25.66499999999999</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>24.65785000000001</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>67.1204800000001</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>104.64259</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>271.394390000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>43765.42495990</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>379.3559200000029</v>
+      </c>
+      <c r="E9" t="n">
+        <v>495.992460000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.95473</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.83195</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.25599</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.35248</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.12955</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.36104</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.163050000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.52349</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.641820000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.5056</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.95564</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.756229999999999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.05465</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3718</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.92333</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.158680000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4.13673</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3.6005</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.05707</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.10572</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.52218</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3.919920000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11.82434</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19.55774999999999</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>18.50694000000001</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>11.41694</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.96243</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19.73167</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.071819999999999</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>12.47053000000001</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>92.61924000000022</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>11.95848</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.8353799999999999</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1.19991</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.60847</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.49059</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>5.68654</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>6.147419999999999</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>6.711869999999999</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.426450000000001</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4.20233</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>7.29541</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>8.657570000000002</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>4.144550000000001</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>53.80895000000002</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>13.00257</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>4.697959999999999</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>21.80348999999996</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>46.58760000000005</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>13.53429</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>3.55854</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>20.97228000000001</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>24.29985999999999</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>66.81152000000006</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>26.50144999999995</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>131.0587400000002</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1.23263</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.31934</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.31996</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.7759400000000001</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.03253</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.15832</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.9122599999999995</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>2.419659999999999</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>4.06805</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>3.06934</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>2.313330000000001</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>2.27614</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>9.401820000000001</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>5.566380000000001</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>3.60426</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>2.57833</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>1.2273</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>2.57004</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>3.56808</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>1.47912</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>3.52754</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>1.23695</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>3.1346</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>17.98973000000001</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>13.29409000000001</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>9.3124</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>8.20486</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>15.18477000000001</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>72.65443000000002</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>52.14106000000001</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>59.99802999999999</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>1.55197</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.47408</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.03377</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.1772</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>1.666060000000001</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>6.487709999999997</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>5.382669999999997</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>11.67796</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>9.170640000000002</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>3.805629999999999</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>6.13812</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>6.243609999999999</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>43.73082000000009</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>23.38962999999999</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>92.24628</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>174.7683900000006</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>96.62496000000006</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>1.57924</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.6844299999999999</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>25.21439999999999</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>25.35800000000001</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>67.12045000000009</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>104.64259</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>271.393350000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>43765.62043793</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>373.8647900000029</v>
+      </c>
+      <c r="E10" t="n">
+        <v>495.3162000000011</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.517130000000002</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.48777</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07226999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5676399999999999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.52054</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5157200000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01686</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.818870000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.52349</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.641820000000001</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.5056</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.98429</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.756229999999999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.98448</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.36154</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.36561</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.92329</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3.158680000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4.13673</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3.6005</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.05707</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.10572</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.52218</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.919920000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11.82434</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19.55774999999999</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>18.43841000000001</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>11.48547</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19.74075</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.071819999999999</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>12.47053000000001</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>92.61266000000022</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8.520880000000002</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.56004</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1.19859</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.08818</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.5325800000000001</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>5.34236</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>6.147419999999999</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>6.740519999999998</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>2.346020000000002</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4.2889</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>7.29541</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>8.657570000000002</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>4.144550000000001</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>53.74042000000002</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>13.0711</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>21.81256999999996</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>46.58760000000005</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>9.751190000000001</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>2.149080000000001</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>20.57632</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>24.38642999999999</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>66.81152000000006</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>26.51884999999995</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>131.0587400000002</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>1.08692</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.31934</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.31996</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.7759400000000001</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.03253</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.15932</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.9122599999999995</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>2.419659999999999</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>4.058050000000001</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>3.06934</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>2.323330000000001</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>4.77664</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>6.472810000000002</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>5.543270000000001</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>3.60426</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>2.48644</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1.21449</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>2.57004</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>3.56515</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>1.47912</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>3.52754</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>1.23695</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>3.1346</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>17.98973000000001</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>13.29409000000001</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>9.3124</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>8.20486</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>15.18477000000001</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>72.65443000000002</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>60.00512999999999</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>1.40626</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.47408</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.03377</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.1782</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>1.666060000000001</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>6.477709999999997</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>5.392669999999998</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>11.24945</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>9.147530000000001</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>3.70093</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>6.135189999999999</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>6.243609999999999</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>43.73082000000009</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>23.38962999999999</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>92.24628</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>174.7889900000006</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>96.63206000000005</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>1.43353</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.6854299999999999</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>24.78588999999999</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>25.22726000000001</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>67.12045000000009</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>104.64259</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>271.421050000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>43765.66529957</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>374.5390500000029</v>
+      </c>
+      <c r="E11" t="n">
+        <v>495.5595400000011</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.70795</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.48777</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5676399999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.52054</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5157200000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01686</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.818870000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.09462</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.62317</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.5056</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.96564</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.756229999999999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.98448</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.36154</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.36401</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.92329</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3.158680000000001</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.13673</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3.6005</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.05707</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.10572</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.52218</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3.919920000000001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11.75581</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19.68788999999999</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>18.39411000000001</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>11.48209</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19.74075</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.071819999999999</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>12.47053000000001</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>92.61878000000021</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>8.7117</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.4912</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.19859</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1.08818</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.5325800000000001</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>5.913489999999999</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>6.128769999999999</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>6.721869999999999</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>2.346020000000002</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4.2873</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>7.29541</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>8.657570000000002</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4.144550000000001</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>53.75773000000002</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>13.06772</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>21.81256999999996</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>46.58760000000005</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>9.87317</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>2.14908</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>21.11015</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>24.38482999999999</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>66.82545000000006</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>26.51884999999995</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>131.0587400000002</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1.56043</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.31934</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.31996</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.7759400000000001</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.26946</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.15932</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.6374199999999999</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>2.60654</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>4.058050000000001</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>3.06934</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>2.314190000000001</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>4.77664</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>6.472810000000002</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>5.543270000000001</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>3.60426</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>2.48644</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1.21449</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>2.57004</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>3.56515</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>1.47912</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>3.52754</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>1.23695</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>3.1346</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>17.98973000000001</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>13.29409000000001</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>9.3124</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>8.20486</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>15.18477000000001</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>72.65443000000002</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>99.10461999999998</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>60.00512999999999</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>1.87977</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.47408</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.2707</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.1782</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>1.391220000000001</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>6.664589999999998</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>5.383529999999998</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>11.24945</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>9.147530000000001</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>3.70093</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>6.135189999999999</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>6.243609999999999</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>43.73082000000009</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>23.38962999999999</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>92.24628</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>174.4189900000006</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>96.63206000000005</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>1.90704</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0.92236</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>24.68878999999999</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>25.22726000000001</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>67.12045000000009</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>104.64259</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>271.051050000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43765.89010342</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>362.9483400000026</v>
+      </c>
+      <c r="E12" t="n">
+        <v>520.4900300000007</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.22113</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.23175</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.44809</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.23237</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.23394</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.44186</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.87468</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.589199999999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.057120000000001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.04819</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.10531</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5.393419999999999</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.53075</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9785999999999999</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.94699</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.93385</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.58563</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9.2813</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.279790000000001</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.4083</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.01974</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.350830000000001</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.5166500000000001</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.851390000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.110730000000001</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19.96112999999999</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19.57356</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10.14215</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.52859</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19.05545</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>12.47045000000001</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>92.66312000000023</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.45288</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.4515200000000001</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.3016600000000001</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.03065</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.4431</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>7.463879999999999</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>5.105309999999999</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>7.49873</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>3.509350000000001</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3.880840000000001</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>10.86693</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.688090000000002</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>4.887219999999997</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>49.49681000000002</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>11.67074000000001</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>21.77256999999996</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>46.58752000000005</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>4.20325</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.4765600000000001</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>23.57727000000002</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>23.32307999999998</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>61.16755000000006</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>26.47884999999996</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>131.0586600000002</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>8.035019999999999</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.97104</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.07882999999999998</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.04471</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1.03988</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.97166</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.40962</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.16132</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.08772000000000001</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.29552</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>2.107540000000001</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>3.85755</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>5.17632</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.8958899999999999</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>3.22622</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>3.7333</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>5.925890000000002</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>8.888669999999999</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>3.60426</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>2.41791</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.44163</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>3.98372</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>3.391729999999999</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>1.8667</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.9653100000000001</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>3.49227</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>6.322080000000001</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>16.74853</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>12.68964000000001</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>15.1367</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>15.19441</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>99.10461999999998</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>60.01190999999999</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>9.00606</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0.12354</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>0.15832</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.41086</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.24904</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>2.403060000000001</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>9.03387</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>4.12211</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>9.659189999999997</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>12.49293</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>2.85954</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>7.37545</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>6.32428</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>50.8969500000001</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>30.03440999999998</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>174.4189900000006</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>96.63884000000004</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>9.199059999999999</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0.7487599999999999</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>25.21822999999999</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>29.0522</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>80.9313600000001</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>271.057830000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>43765.90366909</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>359.2454300000028</v>
+      </c>
+      <c r="E13" t="n">
+        <v>517.7061100000008</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.146439999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.44809</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6099300000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.24995</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.99413</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6.404849999999998</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.6645</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.12718</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.46567</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6.437119999999999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.5413</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.43092</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.88076</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.92716</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.64501</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9.2813</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.279790000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.25191</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.10572</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.507220000000001</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.81573</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.611390000000001</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.529910000000001</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19.85796999999999</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>20.18122000000001</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>10.47215</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.52859</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>12.47005000000001</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>84.97301000000022</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.149869999999998</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.4515200000000001</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.3016600000000001</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.03065</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.85988</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>7.398979999999998</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>4.791679999999999</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>8.902790000000001</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>3.972220000000001</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3.807920000000001</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>10.92631</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.531700000000002</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>5.428669999999999</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>50.18049000000002</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>12.00074</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>21.77279999999996</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>46.58712000000005</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>4.900239999999996</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.8933399999999999</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>25.06567000000001</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>23.69459999999998</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>62.18123000000006</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>26.47907999999996</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>131.0582600000002</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>7.616599999999999</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.5783799999999999</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.0493</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0.5789999999999998</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.5789999999999998</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.19002</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.12521</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.16132</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.08772000000000001</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.29625</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.7862699999999998</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>3.85755</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>5.17632</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.8958899999999999</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>3.29522</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>3.7333</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>5.856890000000002</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>9.957879999999999</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>3.68882</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>2.01606</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>2.47512</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>3.98372</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>2.0914</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.95416</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.9653100000000001</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>4.77078</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>6.322080000000001</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>16.74853</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>9.550149999999999</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>16.37834</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>14.3987</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>15.19419000000001</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>99.10461999999998</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>60.00780999999999</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>8.194979999999999</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0.05929</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0.15832</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0.31523</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0.24904</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>1.08252</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>9.03387</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>4.19111</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>9.590189999999996</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>13.6467</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>4.49118</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>6.075119999999999</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>6.690249999999999</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>48.9991000000001</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>29.59288999999998</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>174.4189900000006</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>96.63474000000005</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>8.323729999999999</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0.65313</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>23.89768999999999</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>30.90324999999999</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>78.5919900000001</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>271.053730000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>43765.91113226</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>366.6993900000029</v>
+      </c>
+      <c r="E14" t="n">
+        <v>518.7589800000006</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.10908</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.44809</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.13264</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6099300000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.45083</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6.861569999999998</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.664520000000001</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.13175</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.14275</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5.98342</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.00857</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9740499999999999</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.88076</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.92876</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.64501</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9.27899</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.279790000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.25191</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.22549</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.507220000000001</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.51666</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3.611390000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.529910000000001</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>20.76721999999999</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19.59652000000001</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10.19815</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21.59946999999996</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>12.47032000000001</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>92.61958000000021</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.112509999999999</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.4515200000000001</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.4286800000000001</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.03065</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.61117</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>8.3124</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>4.796269999999999</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>8.12617</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3.982620000000002</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.809520000000001</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>10.924</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3.531700000000002</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>5.249369999999997</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>50.50504000000002</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>11.67072</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>21.77279999999996</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>84.47100000000007</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>46.58739000000005</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>4.862879999999996</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.7716499999999999</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>25.21746000000001</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>23.51458999999997</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>62.17576000000006</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>26.47907999999996</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>131.0583900000002</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>7.97042</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.6472199999999999</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.07882999999999998</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.0493</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.6478399999999999</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.6478399999999999</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.19002</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.12521</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.16132</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.08772000000000001</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.29625</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.7782699999999998</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>3.85755</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>5.03901</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>9.206319999999998</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>2.5055</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>1.23253</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>1.68991</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>9.957879999999999</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>3.70024</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>2.01606</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>2.46368</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>3.98372</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>2.0914</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>2.10742</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.9653100000000001</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>3.31084</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>6.322080000000001</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>17.07622</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>10.25056</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>15.13648</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>14.3987</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>15.19441</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>8.051720000000001</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>60.01190999999999</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>8.61764</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0.12813</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0.15832</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>0.31523</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0.24904</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>1.07452</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>8.896559999999999</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>11.71182</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>2.922439999999999</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>13.65812</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>4.479740000000001</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>6.075119999999999</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>6.383569999999999</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>48.7853400000001</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>29.59310999999998</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>12.39617000000001</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>174.7889900000006</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>96.63884000000004</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>8.81523</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0.65313</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>24.60534000000001</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>30.59654999999999</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>78.37845000000011</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>104.28245</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>271.427830000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>43765.81083728</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>366.4355000000029</v>
+      </c>
+      <c r="E15" t="n">
+        <v>511.035020000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.66977</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07560999999999998</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6795200000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.57843</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.07622999999999998</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.07779999999999998</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1098</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.44386</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.02866</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.04563</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.413679999999998</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.517350000000001</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36171</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.77562</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.68196</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.39386</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.39762</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.92438</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.49952</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9.279500000000001</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3.422120000000001</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.25422</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.10578</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.1474</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.5508</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3.611390000000001</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.337820000000001</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19.26345999999999</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19.59652000000001</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.19816</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>40.43802000000002</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>34.11706999999998</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>12.47032000000001</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>84.95086000000022</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>11.74538</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.25795</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>1.67236</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.12865</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.4725200000000001</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7.459309999999999</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>4.879059999999997</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>7.457580000000001</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>2.812960000000001</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.322</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>11.77902</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4.676340000000001</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>4.803979999999998</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>48.80919000000002</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>11.67073000000001</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>21.77279999999996</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>84.47114000000006</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>46.58739000000005</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>13.57622</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>1.70064</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>22.60891000000002</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>25.58133999999997</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>60.47992000000006</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>26.47907999999996</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>131.0585300000002</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>1.01765</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.01823</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.55201</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.12415</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.7247099999999999</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.24537</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>1.17287</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>7.335599999999999</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1.81036</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>2.137740000000001</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>1.91783</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>6.975180000000001</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>4.149760000000001</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>1.69604</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>2.47736</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>3.97004</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>2.10963</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>1.8533</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0.96762</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>4.387659999999999</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>6.253550000000001</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>17.80611</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>10.25056</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>15.06795</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>14.45769</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>15.19488</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>60.01190999999999</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>1.03588</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.8500499999999999</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0.12539</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.9743799999999999</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0.9700799999999994</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>8.508469999999999</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>3.9481</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>8.893010000000002</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>13.5002</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>4.1734</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>6.079669999999999</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>7.208579999999998</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>49.3781700000001</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>29.65256999999998</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>174.7889900000006</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>96.63884000000004</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>1.82372</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>1.18863</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>22.31966</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>30.96184999999999</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>79.03074000000008</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>271.427830000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>43765.79704115</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>366.5273000000028</v>
+      </c>
+      <c r="E16" t="n">
+        <v>516.8532700000009</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.04823</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.07226999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.67435</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.57843</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.07288999999999998</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.07445999999999998</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.78454</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.48534</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.08454</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.008009999999998</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.38724</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53848</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.77562</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4.65828</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.39386</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.37864</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.78076</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.92438</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.49952</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9.279500000000001</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3.490650000000001</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.25422</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.10578</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.07887</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.710799999999999</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3.759920000000001</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.057790000000001</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>20.10224999999999</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19.23373000000001</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>10.19816</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>40.43702000000003</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>34.11731999999997</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>12.47112000000001</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>84.92656000000021</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>11.1205</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1.25278</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1.2157</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.03065</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.26988</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>7.092549999999998</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>4.925719999999997</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>7.4339</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>3.772500000000001</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3.705140000000001</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>11.77902</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>4.744870000000001</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>4.895449999999999</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>49.15369000000001</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>11.67073000000001</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>21.77279999999996</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>84.47014000000007</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>46.58844000000004</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>12.94617</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>1.94334</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>23.22467000000001</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>25.12447999999997</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>60.82442000000005</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>26.47907999999996</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>131.0585800000002</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>2.16552</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.14026</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.14088</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.14088</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.12215</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.16132</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>1.17247</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.74479</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.5810499999999997</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>1.1441</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>7.175069999999998</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>2.38472</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>2.922890000000001</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>1.91783</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>10.05024</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>9.41944</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>4.06976</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>1.69861</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>2.54368</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>3.99626</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>2.0914</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>2.16579</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0.3987200000000001</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>4.814719999999999</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>6.253550000000001</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>17.64611</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>10.18203</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>15.13648</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>14.45769</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>15.55488</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>23.15171000000001</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>59.99885999999999</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>2.30578</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0.01748</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0.12339</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>1.33379</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>1.32584</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>8.31917</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>5.307609999999999</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>11.96807</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>13.4892</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>4.242289999999999</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>6.087659999999999</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>7.379229999999998</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>49.2181700000001</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>30.01256999999998</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>174.7879900000006</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>96.62579000000007</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>2.333050000000001</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>1.47404</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>26.92069</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>31.19837999999999</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>79.2307400000001</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>271.413780000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>43765.92855394</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>360.3206400000028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>521.1814000000007</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.08157</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.44809</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01843</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.16164</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6706300000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.13306</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.91375</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.327979999999998</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.35663</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.331350000000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4.967</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.45123</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.32102</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.78076</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.9804</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.58566</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>9.27899</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3.422120000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.71115</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.10578</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.60444</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.710799999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>3.691390000000001</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.057790000000001</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19.60686999999999</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>19.23374000000001</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>10.26669</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>40.43859000000002</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>34.11731999999997</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>12.47072000000001</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>84.92734000000023</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.084999999999999</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.4665200000000001</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.3016600000000001</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.18049</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.8036899999999999</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>8.241729999999999</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>4.19563</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>8.298350000000003</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>4.772249999999999</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>3.761160000000001</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>10.86465</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5.13327</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>5.42102</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>48.58979000000001</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>11.73926000000001</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>21.77279999999996</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>84.47171000000007</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>46.58804000000004</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>5.850369999999996</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.9869899999999999</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>25.50796000000002</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>25.18009999999997</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>60.32905000000006</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>26.47907999999996</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>131.0597500000002</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>7.50771</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.5969</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.15367</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.60149</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.5975199999999999</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.31597</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.16132</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.16872</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.29862</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1.56531</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>1.48464</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>6.831669999999998</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>1.47299</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>2.922890000000001</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>1.98683</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>10.11877</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>9.350440000000001</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>4.05834</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>2.01262</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>1.21911</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>5.07333</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>2.0914</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>1.48049</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0.3301900000000001</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>4.814719999999999</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>6.322080000000001</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>17.64611</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>10.30286</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>15.06795</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>14.44284</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>15.55488</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>23.15271000000001</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>59.99974</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>8.104610000000001</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0.16366</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0.11855</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>0.31721</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0.33004</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>1.863930000000001</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>8.31631</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>4.395880000000001</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>12.1056</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>13.40878</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>3.23173</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>7.16473</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>6.625399999999999</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>49.33900000000009</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>29.99771999999998</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>174.7889900000006</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>96.62667000000006</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>8.342320000000001</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0.69175</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>26.68172</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>30.43063999999999</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>79.33672000000008</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>271.415660000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>43776.36000000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>43765.96768930</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>359.6259100000028</v>
+      </c>
+      <c r="E18" t="n">
+        <v>520.5777100000005</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.052740000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.44871</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.20549</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.009800000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6726300000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.06359</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.342979999999998</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.521640000000001</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.35663</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.864570000000001</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5.4471</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.00439</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.7041599999999997</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.39762</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.9804</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.58726</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9.186880000000002</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.73672</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.37054</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.10578</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.95425</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.5508</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>4.632639999999999</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.126320000000001</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19.53833999999999</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>19.30227000000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>10.19816</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.73553</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2.717119999999998</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>40.43859000000002</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>34.11731999999997</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>12.47032000000001</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>84.92700000000021</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.05649</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.6542</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.3016600000000001</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.02865</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.67387</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>8.406569999999999</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>4.878269999999997</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>8.311670000000001</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3.708550000000001</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>4.37802</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>10.77414</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>5.107259999999999</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>3.61083</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>49.59957000000001</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>11.67073000000001</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>4.706279999999999</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>21.77279999999996</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>84.47171000000007</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>46.58764000000004</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>6.009539999999998</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.70533</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>25.30506000000001</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>23.87024999999998</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>61.27030000000006</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>26.47907999999996</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>131.0593500000002</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>7.54041</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.47485</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.15367</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0.47944</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.4754700000000001</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.31797</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.15932</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.16872</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.29862</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>2.478430000000001</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>1.17779</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>6.841669999999998</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>9.722379999999999</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>1.31463</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>3.17365</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>8.437659999999999</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>4.06977</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>1.94409</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>1.22136</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>5.12818</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>2.0914</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>2.58901</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0.3278800000000001</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>3.81346</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>6.324390000000001</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>17.73758</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>10.37139</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>15.06795</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>14.44283</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>15.55488</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>23.22401000000001</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>59.99817999999999</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>8.015259999999998</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0.16366</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0.11855</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>0.31921</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.32804</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>2.777050000000001</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>8.019459999999999</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>11.03701</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>4.90965</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>12.50743</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>3.165449999999999</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>7.21958</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>6.730349999999998</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>49.50131000000008</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>29.99770999999998</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>174.8602900000006</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>96.62511000000006</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>8.252969999999998</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0.69175</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>26.74317000000002</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>29.62280999999999</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>79.4990200000001</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>271.4854000000011</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>43765.51872846</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>360.1756500000027</v>
+      </c>
+      <c r="E19" t="n">
+        <v>521.5727900000007</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.40992</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.44809</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.16164</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6706300000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.91375</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7.019819999999998</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.84201</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.35361</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63606</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6.264760000000001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.3919</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.32102</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.78076</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.9804</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.58726</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.186880000000002</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.73672</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.37054</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.10578</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.19971</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.710799999999999</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4.47264</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.126320000000001</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19.53825999999999</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19.30227000000001</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>10.19816</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2.60538</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2.757119999999998</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>40.44100000000002</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>34.11765999999997</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12.47032000000001</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>84.92774000000021</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.413349999999999</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.4515200000000001</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.56765</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.18049</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.67187</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>8.933569999999998</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>4.195619999999999</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>8.90082</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.712920000000002</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3.761160000000001</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>10.77414</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5.107259999999999</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>4.016290000000001</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>49.43949000000002</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>11.67073000000001</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>4.57613</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>21.81279999999996</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>84.47412000000007</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>46.58798000000004</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>6.163719999999996</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>1.12116</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>25.74293000000002</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>23.65884999999998</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>61.11022000000006</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>26.38892999999996</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>131.0621000000002</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>7.442849999999999</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0.2091</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.4666100000000001</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.22251</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0.20972</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.20972</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0.25172</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.23016</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.16872</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.2986199999999999</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>2.478430000000001</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>1.17779</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>6.841669999999998</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>4.733159999999999</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>6.597269999999998</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>2.71722</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>2.19243</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>8.450199999999999</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>4.06977</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>1.94409</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1.20768</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>5.14186</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>2.10963</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>2.58901</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.3278800000000001</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>3.81346</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>6.324390000000001</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>18.33797000000001</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>10.37139</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>14.98115</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>14.43828</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>15.55488</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>23.22401000000001</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>59.99802999999999</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>7.651949999999998</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0.68912</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0.11381</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>0.25296</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>0.39888</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>2.777050000000001</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>8.019459999999999</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>11.33043</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>4.90965</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>12.51997</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>3.151769999999999</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>7.25149</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>6.730349999999998</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>50.01490000000009</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>29.99315999999998</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>174.8602900000006</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>96.62496000000006</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>8.341689999999998</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0.7650299999999999</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>27.03659000000002</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>29.65357999999999</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>80.0080600000001</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>271.485250000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>43765.54008212</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>357.4923500000028</v>
+      </c>
+      <c r="E20" t="n">
+        <v>522.1557100000008</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.53926</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.44809</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.00562</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4118600000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8637099999999999</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7.574909999999997</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.59211</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.64871</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63151</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.782430000000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.94529</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.59591</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.20916</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.92278</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3.095250000000001</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.249830000000003</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2.40683</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.16816</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.10578</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.17886</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.9661700000000001</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>4.46117</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.078640000000001</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21.63022999999999</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>19.30597000000001</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>10.19446</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.60538</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2.757119999999998</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>40.44134000000002</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>22.43350999999997</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>34.11765999999997</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>12.47032000000001</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>84.92814000000023</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2.54269</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.4515200000000001</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1.59444</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.03065</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.4131000000000001</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8.438619999999998</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>3.240820000000001</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>6.41394</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>5.541199999999999</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.131940000000001</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>12.34508</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4.574990000000001</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>3.25081</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>51.47601000000001</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>11.66703000000001</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>4.57613</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>21.81279999999996</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>84.47446000000006</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>46.58798000000004</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>3.802570000000002</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>1.22983</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>23.63458000000002</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>23.30281999999998</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>63.14304000000005</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>26.38892999999996</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>131.0624400000002</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>9.048230000000002</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.69983</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0.12685</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0.7004499999999999</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.7004499999999999</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0.19415</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.23016</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.4014699999999999</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>3.647400000000001</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.8655699999999998</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>6.773139999999999</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>1.584849999999999</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>9.63002</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>1.68897</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>2.38494</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>8.79355</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>4.069780000000001</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>1.86438</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>2.35421</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>3.99626</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>2.10097</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>2.07034</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0.3258800000000001</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>3.81346</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>6.324390000000001</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>18.33797000000001</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>8.798769999999998</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>16.14616999999999</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>14.43828</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>15.55488</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>23.22401000000001</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>60.0046</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>9.748060000000002</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0.13684</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0.08632000000000001</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>0.19539</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0.24904</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>4.04887</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>7.638709999999999</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>11.21487</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>4.07391</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>12.86333</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>4.218589999999999</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>6.09723</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>6.209679999999999</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>49.60730000000009</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>29.99315999999998</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>174.8602900000006</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>96.63153000000005</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>9.885520000000001</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0.5301299999999999</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>26.97636000000001</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>29.38882999999999</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>79.6004600000001</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>271.491820000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>43776.35000000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>43765.51580611</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>356.4307700000028</v>
+      </c>
+      <c r="E21" t="n">
+        <v>521.0522700000008</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.555779999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.33574</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.66997</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.33636</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.33793</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4118600000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.0121</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.795100000000001</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.35092</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.65173</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.654710000000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4.241490000000001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.619670000000001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.45889</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.20247</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.92278</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3.91764</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9.249830000000003</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2.407090000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.16585</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.10608</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.18117</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.51703</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4.46117</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6.381650000000001</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>20.17005999999999</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19.27691</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>10.52446</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.47257</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.60538</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.97075</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19.05568</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.757119999999998</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>21.59960999999996</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>40.44134000000002</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>22.43384999999997</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>34.11765999999997</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>12.47032000000001</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>84.92736000000021</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.891519999999997</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.6733999999999999</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.3016600000000001</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.03065</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.4131000000000001</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>4.807199999999999</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>3.002650000000001</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>6.896199999999999</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>6.078559999999999</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>3.125250000000001</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>13.16747000000001</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4.572940000000002</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>3.804280000000001</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>50.28979000000002</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>11.99703000000001</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>4.57613</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>21.81279999999996</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>84.47480000000006</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>46.58798000000004</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>5.863769999999994</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.4465600000000001</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>20.78461</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>24.66993999999996</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>62.28682000000006</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>26.38892999999996</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>131.0627800000002</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>8.244770000000001</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>1.0749</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.009989999999999999</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0.01666</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1.07552</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>1.07552</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0.19415</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.01888</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.36715</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>2.932200000000001</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.8664899999999998</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>7.458439999999999</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.90439</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>9.63002</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>1.68924</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>2.48369</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>8.793369999999999</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>4.149780000000001</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>1.86438</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>2.27421</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>3.99626</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>2.10097</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>2.07034</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0.3281900000000001</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>3.81346</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>6.322080000000001</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>18.53797</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>8.59877</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>16.14616999999999</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>14.43828</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>15.55488</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>19.59185</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>72.29443000000002</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>4.344450000000002</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>8.051860000000001</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>99.47461999999999</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>23.22401000000001</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>52.16166000000001</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>36.62692999999999</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>59.99907</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>9.319670000000004</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0.02665</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0.02207</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>0.19539</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0.39888</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>3.299350000000001</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>8.32493</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>10.53441</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>4.172929999999999</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>12.94315</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>4.138589999999999</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>6.09723</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>6.211989999999998</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>49.60499000000008</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>29.99315999999998</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>91.88627999999999</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>12.39631000000001</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>174.8602900000006</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>96.62600000000006</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>9.346940000000004</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0.6157199999999999</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>26.33162000000001</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>29.39095999999999</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>79.59815000000008</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>104.28259</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>271.486290000001</v>
       </c>
     </row>
   </sheetData>
